--- a/cohorts3/ds/cohorts-2024-11-21.xlsx
+++ b/cohorts3/ds/cohorts-2024-11-21.xlsx
@@ -54376,13 +54376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C306B77-AE8A-40AE-9E0F-59E2E094F7DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{376B76C0-5C5A-4A99-BAA9-4F76BEA9A2BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20A85BC0-5001-46AB-920A-51EC1CDBA68B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C1C498-FC73-402B-BBFB-BC8F7C3C69C1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EAC75C-7B9C-4B4F-9BF3-4EB2B391E4F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A001A37-CDEE-4DBD-8E95-DC2A6C7C741C}"/>
 </file>